--- a/game simulations.xlsx
+++ b/game simulations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Imran787\Desktop\Failure of MAI\Game theory chapter\International Studies Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E29812-390A-4070-B7D6-BC841A2B142C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530067C5-80ED-42C5-A5F9-08F6756B731E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="3" xr2:uid="{8ED3AF55-9309-402A-968C-AF98D0CAF6EE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{8ED3AF55-9309-402A-968C-AF98D0CAF6EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Elephant-stag hunt simulations" sheetId="1" r:id="rId1"/>
@@ -270,13 +270,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1117,11 +1117,11 @@
       <c r="M15" s="5"/>
     </row>
     <row r="17" spans="1:3" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
@@ -1190,91 +1190,85 @@
       <c r="A25" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="11"/>
+      <c r="C25" s="9"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="11"/>
+      <c r="C26" s="9"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="11"/>
+      <c r="C27" s="9"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="11"/>
+      <c r="C28" s="9"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="11"/>
+      <c r="C29" s="9"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="11"/>
+      <c r="C30" s="9"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="11"/>
+      <c r="C31" s="9"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="11"/>
+      <c r="C32" s="9"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="11"/>
+      <c r="C33" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B19:C19"/>
@@ -1285,6 +1279,12 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8553,8 +8553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{618C04AB-6A5E-40DC-AB8F-4F9B644B6761}">
   <dimension ref="A1:M100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12967,7 +12967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3591772-6F2A-430B-963C-77D95A662A22}">
   <dimension ref="A1:M100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+    <sheetView topLeftCell="A75" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A100"/>
     </sheetView>
   </sheetViews>
